--- a/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIConfig.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="true"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A954E0CA-6B18-4EDE-B5AE-236711ACD284}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C058479A-12F4-4935-89A4-A0198FA88EA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392"/>
   </bookViews>
@@ -20,81 +20,2965 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>soundPath</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="986">
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>trialTypes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reg2-2, Reg2-2o01, Reg2-2o02, Reg2-2o03, Reg2-2o2, Reg2-3, Reg4-4, Reg4-4o02, Reg4-4o04, Reg4-4o06, Reg4-4o4, Reg4-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
-  </si>
-  <si>
-    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
-  </si>
-  <si>
-    <t>orderIndex</t>
-  </si>
-  <si>
-    <t>S1_S2</t>
-  </si>
-  <si>
-    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
-  </si>
-  <si>
-    <t>Reg4o5_Reg4;Reg9_Reg8</t>
-  </si>
-  <si>
-    <t>Std_Dev_Onset</t>
-  </si>
-  <si>
-    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
-  </si>
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
-  </si>
-  <si>
-    <t>soundPath</t>
-  </si>
-  <si>
-    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\10ms_ICIs_9_8_ISI-800_StdDur-300_BG_Start-2000</t>
-  </si>
-  <si>
-    <t>orderIndex</t>
-  </si>
-  <si>
-    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4</t>
-  </si>
-  <si>
-    <t>S1_S2</t>
-  </si>
-  <si>
-    <t>Reg4o5_Reg4;Reg9_Reg8</t>
-  </si>
-  <si>
-    <t>trialTypes</t>
-  </si>
-  <si>
-    <t>Reg2-2, Reg2-2o01, Reg2-2o02, Reg2-2o03, Reg2-2o2, Reg2-3, Reg4-4, Reg4-4o02, Reg4-4o04, Reg4-4o06, Reg4-4o4, Reg4-6</t>
-  </si>
-  <si>
-    <t>Std_Dev_Onset</t>
-  </si>
-  <si>
-    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2001,2798,3595,4393,5190,5987,6784,7582,8379,9176;2001,2805,3610,4414,5219,6023,6828,7633,8437,9242;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213;2001,2798,3596,4397,5202,6005,6806,7610,8413,9213</t>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
   </si>
 </sst>
 </file>
@@ -141,7 +3025,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -169,12 +3053,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
     <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -204,7 +3131,46 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -485,88 +3451,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="true" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="G1:W1048576"/>
+    <sheetView tabSelected="true" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.95703125" style="1" customWidth="true"/>
-    <col min="2" max="2" width="11.06640625" style="1" customWidth="true"/>
-    <col min="3" max="3" width="11.40234375" style="1" customWidth="true"/>
-    <col min="4" max="4" width="6.40234375" style="1" customWidth="true"/>
-    <col min="5" max="5" width="10.1796875" style="7" customWidth="true"/>
-    <col min="6" max="6" width="14.95703125" style="7" customWidth="true"/>
-    <col min="7" max="7" width="10.77734375" style="1" customWidth="true"/>
-    <col min="8" max="8" width="13.44140625" style="1" customWidth="true"/>
-    <col min="9" max="9" width="13" style="1" customWidth="true"/>
-    <col min="10" max="10" width="10.6640625" style="7" customWidth="true"/>
-    <col min="11" max="11" width="13.44140625" style="7" customWidth="true"/>
-    <col min="12" max="12" width="11.109375" style="1" customWidth="true"/>
-    <col min="13" max="13" width="11" style="1" customWidth="true"/>
-    <col min="14" max="14" width="10" style="1" customWidth="true"/>
-    <col min="15" max="15" width="7.6640625" style="1" customWidth="true"/>
-    <col min="16" max="16" width="5" style="1" customWidth="true"/>
-    <col min="17" max="17" width="12" style="1" customWidth="true"/>
-    <col min="18" max="18" width="8.88671875" style="1"/>
-    <col min="19" max="19" width="16.21875" style="1" customWidth="true"/>
-    <col min="20" max="20" width="8.88671875" style="1"/>
-    <col min="21" max="21" width="25.33203125" style="7" customWidth="true"/>
-    <col min="22" max="22" width="21.6640625" style="1" customWidth="true"/>
-    <col min="23" max="23" width="30.33203125" style="7" customWidth="true"/>
-    <col min="24" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="36.84375" style="1" customWidth="true"/>
+    <col min="2" max="2" width="104.95703125" style="1" customWidth="true"/>
+    <col min="3" max="3" width="14.51171875" style="1" customWidth="true"/>
+    <col min="4" max="4" width="12.1796875" style="1" customWidth="true"/>
+    <col min="5" max="5" width="52.40234375" style="7" customWidth="true"/>
+    <col min="6" max="6" width="178.51171875" style="7" customWidth="true"/>
+    <col min="7" max="7" width="11.1796875" style="1" customWidth="true"/>
+    <col min="8" max="8" width="12.1796875" style="1" customWidth="true"/>
+    <col min="9" max="9" width="4.1796875" style="1" customWidth="true"/>
+    <col min="10" max="10" width="3.625" style="1" customWidth="true"/>
+    <col min="11" max="11" width="25.06640625" style="7" customWidth="true"/>
+    <col min="12" max="12" width="11" style="1" customWidth="true"/>
+    <col min="13" max="13" width="10" style="1" customWidth="true"/>
+    <col min="14" max="14" width="7.6640625" style="1" customWidth="true"/>
+    <col min="15" max="15" width="5" style="1" customWidth="true"/>
+    <col min="16" max="16" width="12" style="1" customWidth="true"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="16.21875" style="1" customWidth="true"/>
+    <col min="19" max="19" width="8.88671875" style="1"/>
+    <col min="20" max="20" width="25.33203125" style="7" customWidth="true"/>
+    <col min="21" max="21" width="21.6640625" style="1" customWidth="true"/>
+    <col min="22" max="22" width="30.33203125" style="7" customWidth="true"/>
+    <col min="23" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="27" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>960</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>963</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>16</v>
+        <v>966</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>18</v>
+        <v>969</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>20</v>
+        <v>972</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>22</v>
+        <v>975</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="G1" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="T1" s="5"/>
+      <c r="V1" s="5"/>
     </row>
     <row r="2" ht="55.5" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>961</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>964</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>17</v>
+        <v>967</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>21</v>
+        <v>973</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>23</v>
+        <v>976</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="U2" s="9"/>
+      <c r="G2" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="J2" s="1">
+        <v>10</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="T2" s="9"/>
     </row>
-    <row r="3" x14ac:dyDescent="0.25">
-      <c r="F3" s="1"/>
+    <row r="3" ht="55.5" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>968</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>971</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="Q3" s="8"/>
+      <c r="T3" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIConfig.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="true"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C058479A-12F4-4935-89A4-A0198FA88EA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CD9FDE-9B9A-46A7-A987-0B71D7FFA430}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,79 +20,553 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="986">
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
-  </si>
-  <si>
-    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
-  </si>
-  <si>
-    <t>soundPath</t>
-  </si>
-  <si>
-    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
-  </si>
-  <si>
-    <t>orderIndex</t>
-  </si>
-  <si>
-    <t>1-1,1-2,1-3,1-4</t>
-  </si>
-  <si>
-    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
-  </si>
-  <si>
-    <t>S1_S2</t>
-  </si>
-  <si>
-    <t>Reg4o5,Reg4</t>
-  </si>
-  <si>
-    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
-  </si>
-  <si>
-    <t>trialTypes</t>
-  </si>
-  <si>
-    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
-  </si>
-  <si>
-    <t>Std_Dev_Onset</t>
-  </si>
-  <si>
-    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
-  </si>
-  <si>
-    <t>Window</t>
-  </si>
-  <si>
-    <t>-8000, 1000</t>
-  </si>
-  <si>
-    <t>DevPlotWin</t>
-  </si>
-  <si>
-    <t>-100,600</t>
-  </si>
-  <si>
-    <t>fhp</t>
-  </si>
-  <si>
-    <t>flp</t>
-  </si>
-  <si>
-    <t>colors</t>
-  </si>
-  <si>
-    <t>#FF0000, #FFA500, #0000FF</t>
-  </si>
-  <si>
-    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1144">
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>-100,600</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
     <t>paradigm</t>
@@ -3025,7 +3499,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -3097,11 +3571,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -3171,6 +3651,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3453,98 +3939,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="true" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="true" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.84375" style="1" customWidth="true"/>
-    <col min="2" max="2" width="104.95703125" style="1" customWidth="true"/>
-    <col min="3" max="3" width="14.51171875" style="1" customWidth="true"/>
-    <col min="4" max="4" width="12.1796875" style="1" customWidth="true"/>
-    <col min="5" max="5" width="52.40234375" style="7" customWidth="true"/>
-    <col min="6" max="6" width="178.51171875" style="7" customWidth="true"/>
-    <col min="7" max="7" width="11.1796875" style="1" customWidth="true"/>
-    <col min="8" max="8" width="12.1796875" style="1" customWidth="true"/>
-    <col min="9" max="9" width="4.1796875" style="1" customWidth="true"/>
-    <col min="10" max="10" width="3.625" style="1" customWidth="true"/>
-    <col min="11" max="11" width="25.06640625" style="7" customWidth="true"/>
+    <col min="1" max="1" width="36.25" style="1" customWidth="true"/>
+    <col min="2" max="2" width="102.125" style="1" customWidth="true"/>
+    <col min="3" max="3" width="14.25" style="1" customWidth="true"/>
+    <col min="4" max="4" width="12.125" style="1" customWidth="true"/>
+    <col min="5" max="5" width="51.625" style="7" customWidth="true"/>
+    <col min="6" max="6" width="175.75" style="7" customWidth="true"/>
+    <col min="7" max="7" width="11" style="1" customWidth="true"/>
+    <col min="8" max="8" width="11.25" style="1" customWidth="true"/>
+    <col min="9" max="9" width="4" style="1" customWidth="true"/>
+    <col min="10" max="10" width="3.375" style="1" customWidth="true"/>
+    <col min="11" max="11" width="23.75" style="7" customWidth="true"/>
     <col min="12" max="12" width="11" style="1" customWidth="true"/>
     <col min="13" max="13" width="10" style="1" customWidth="true"/>
-    <col min="14" max="14" width="7.6640625" style="1" customWidth="true"/>
+    <col min="14" max="14" width="7.625" style="1" customWidth="true"/>
     <col min="15" max="15" width="5" style="1" customWidth="true"/>
     <col min="16" max="16" width="12" style="1" customWidth="true"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="16.21875" style="1" customWidth="true"/>
-    <col min="19" max="19" width="8.88671875" style="1"/>
-    <col min="20" max="20" width="25.33203125" style="7" customWidth="true"/>
-    <col min="21" max="21" width="21.6640625" style="1" customWidth="true"/>
-    <col min="22" max="22" width="30.33203125" style="7" customWidth="true"/>
-    <col min="23" max="16384" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="8.875" style="1"/>
+    <col min="18" max="18" width="16.25" style="1" customWidth="true"/>
+    <col min="19" max="19" width="8.875" style="1"/>
+    <col min="20" max="20" width="25.375" style="7" customWidth="true"/>
+    <col min="21" max="21" width="21.625" style="1" customWidth="true"/>
+    <col min="22" max="22" width="30.375" style="7" customWidth="true"/>
+    <col min="23" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="27" customHeight="true" x14ac:dyDescent="0.25">
+    <row r="1" s="3" customFormat="true" ht="27" customHeight="true" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>960</v>
+        <v>1118</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>963</v>
+        <v>1121</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>966</v>
+        <v>1124</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>969</v>
+        <v>1127</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>972</v>
+        <v>1130</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>975</v>
+        <v>1133</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>978</v>
+        <v>1136</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>980</v>
+        <v>1138</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>982</v>
+        <v>1140</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>983</v>
+        <v>1141</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>984</v>
+        <v>1142</v>
       </c>
       <c r="T1" s="5"/>
       <c r="V1" s="5"/>
     </row>
-    <row r="2" ht="55.5" customHeight="true" x14ac:dyDescent="0.25">
+    <row r="2" ht="55.5" customHeight="true" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>961</v>
+        <v>1119</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>964</v>
+        <v>1122</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>967</v>
+        <v>1125</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>970</v>
+        <v>1128</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>973</v>
+        <v>1131</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>976</v>
+        <v>1134</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>979</v>
+        <v>1137</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>981</v>
+        <v>1139</v>
       </c>
       <c r="I2" s="1">
         <v>0.10000000000000001</v>
@@ -3553,35 +4039,35 @@
         <v>10</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>985</v>
+        <v>1143</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="T2" s="9"/>
     </row>
-    <row r="3" ht="55.5" customHeight="true" x14ac:dyDescent="0.25">
+    <row r="3" ht="55.5" customHeight="true" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>962</v>
+        <v>1120</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>965</v>
+        <v>1123</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>968</v>
+        <v>1126</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>971</v>
+        <v>1129</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>974</v>
+        <v>1132</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>977</v>
+        <v>1135</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>979</v>
+        <v>1137</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>981</v>
+        <v>1139</v>
       </c>
       <c r="I3" s="1">
         <v>0.10000000000000001</v>
@@ -3590,7 +4076,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>985</v>
+        <v>1143</v>
       </c>
       <c r="Q3" s="8"/>
       <c r="T3" s="9"/>

--- a/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIConfig.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIConfig.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="1274">
   <si>
     <t>paradigm</t>
   </si>
@@ -99,6 +99,396 @@
   <si>
     <t>-100,600</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
     <t>paradigm</t>
@@ -3499,7 +3889,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -3577,11 +3967,16 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -3657,6 +4052,11 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3945,17 +4345,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.25" style="1" customWidth="true"/>
-    <col min="2" max="2" width="102.125" style="1" customWidth="true"/>
-    <col min="3" max="3" width="14.25" style="1" customWidth="true"/>
-    <col min="4" max="4" width="12.125" style="1" customWidth="true"/>
-    <col min="5" max="5" width="51.625" style="7" customWidth="true"/>
-    <col min="6" max="6" width="175.75" style="7" customWidth="true"/>
-    <col min="7" max="7" width="11" style="1" customWidth="true"/>
-    <col min="8" max="8" width="11.25" style="1" customWidth="true"/>
-    <col min="9" max="9" width="4" style="1" customWidth="true"/>
-    <col min="10" max="10" width="3.375" style="1" customWidth="true"/>
-    <col min="11" max="11" width="23.75" style="7" customWidth="true"/>
+    <col min="1" max="1" width="36.84375" style="1" customWidth="true"/>
+    <col min="2" max="2" width="104.95703125" style="1" customWidth="true"/>
+    <col min="3" max="3" width="14.51171875" style="1" customWidth="true"/>
+    <col min="4" max="4" width="12.1796875" style="1" customWidth="true"/>
+    <col min="5" max="5" width="52.40234375" style="7" customWidth="true"/>
+    <col min="6" max="6" width="178.51171875" style="7" customWidth="true"/>
+    <col min="7" max="7" width="11.1796875" style="1" customWidth="true"/>
+    <col min="8" max="8" width="12.1796875" style="1" customWidth="true"/>
+    <col min="9" max="9" width="4.1796875" style="1" customWidth="true"/>
+    <col min="10" max="10" width="3.625" style="1" customWidth="true"/>
+    <col min="11" max="11" width="25.06640625" style="7" customWidth="true"/>
     <col min="12" max="12" width="11" style="1" customWidth="true"/>
     <col min="13" max="13" width="10" style="1" customWidth="true"/>
     <col min="14" max="14" width="7.625" style="1" customWidth="true"/>
@@ -3972,65 +4372,65 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="27" customHeight="true" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>1118</v>
+        <v>1248</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1121</v>
+        <v>1251</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>1124</v>
+        <v>1254</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>1127</v>
+        <v>1257</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1130</v>
+        <v>1260</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>1133</v>
+        <v>1263</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1136</v>
+        <v>1266</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1138</v>
+        <v>1268</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1140</v>
+        <v>1270</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1141</v>
+        <v>1271</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>1142</v>
+        <v>1272</v>
       </c>
       <c r="T1" s="5"/>
       <c r="V1" s="5"/>
     </row>
     <row r="2" ht="55.5" customHeight="true" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>1119</v>
+        <v>1249</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1122</v>
+        <v>1252</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>1125</v>
+        <v>1255</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>1128</v>
+        <v>1258</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1131</v>
+        <v>1261</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1134</v>
+        <v>1264</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1137</v>
+        <v>1267</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1139</v>
+        <v>1269</v>
       </c>
       <c r="I2" s="1">
         <v>0.10000000000000001</v>
@@ -4039,35 +4439,35 @@
         <v>10</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>1143</v>
+        <v>1273</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="T2" s="9"/>
     </row>
     <row r="3" ht="55.5" customHeight="true" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>1120</v>
+        <v>1250</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1123</v>
+        <v>1253</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1126</v>
+        <v>1256</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1129</v>
+        <v>1259</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1132</v>
+        <v>1262</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>1135</v>
+        <v>1265</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1137</v>
+        <v>1267</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1139</v>
+        <v>1269</v>
       </c>
       <c r="I3" s="1">
         <v>0.10000000000000001</v>
@@ -4076,7 +4476,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>1143</v>
+        <v>1273</v>
       </c>
       <c r="Q3" s="8"/>
       <c r="T3" s="9"/>

--- a/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIConfig.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="true"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CD9FDE-9B9A-46A7-A987-0B71D7FFA430}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8894BE7E-9E9B-4C8E-88BE-4F8A4CF75ECF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4395"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4960" uniqueCount="4092">
   <si>
     <t>paradigm</t>
   </si>
@@ -85,6 +85,9 @@
     <t>DevPlotWin</t>
   </si>
   <si>
+    <t>-100,600</t>
+  </si>
+  <si>
     <t>fhp</t>
   </si>
   <si>
@@ -97,8 +100,129 @@
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fhp2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flp2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
     <t>-100,600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
   </si>
   <si>
     <t>paradigm</t>
@@ -173,12 +297,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -251,12 +396,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -329,12 +495,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -407,12 +594,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -485,12 +693,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -563,12 +792,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -641,12 +891,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -719,12 +990,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -797,12 +1089,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -875,12 +1188,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -953,12 +1287,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -1031,12 +1386,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -1109,12 +1485,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -1187,12 +1584,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -1265,12 +1683,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -1343,12 +1782,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -1421,12 +1881,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -1499,12 +1980,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -1577,12 +2079,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -1655,12 +2178,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -1733,12 +2277,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -1811,12 +2376,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -1889,12 +2475,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -1967,12 +2574,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -2045,12 +2673,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -2123,12 +2772,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -2201,12 +2871,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -2279,12 +2970,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -2357,12 +3069,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -2435,12 +3168,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -2513,12 +3267,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -2591,12 +3366,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -2669,12 +3465,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -2747,12 +3564,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -2825,12 +3663,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -2903,12 +3762,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -2981,12 +3861,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -3059,12 +3960,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -3137,12 +4059,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -3215,12 +4158,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -3293,12 +4257,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -3371,12 +4356,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -3449,12 +4455,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -3527,12 +4554,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -3605,12 +4653,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -3683,12 +4752,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -3761,12 +4851,33 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -3839,10 +4950,7357 @@
     <t>flp</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
   </si>
 </sst>
 </file>
@@ -3889,7 +12347,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="127">
     <border>
       <left/>
       <right/>
@@ -3972,11 +12430,86 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -4057,6 +12590,81 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4337,13 +12945,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="true" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.84375" style="1" customWidth="true"/>
     <col min="2" max="2" width="104.95703125" style="1" customWidth="true"/>
@@ -4354,132 +12962,161 @@
     <col min="7" max="7" width="11.1796875" style="1" customWidth="true"/>
     <col min="8" max="8" width="12.1796875" style="1" customWidth="true"/>
     <col min="9" max="9" width="4.1796875" style="1" customWidth="true"/>
-    <col min="10" max="10" width="3.625" style="1" customWidth="true"/>
-    <col min="11" max="11" width="25.06640625" style="7" customWidth="true"/>
-    <col min="12" max="12" width="11" style="1" customWidth="true"/>
-    <col min="13" max="13" width="10" style="1" customWidth="true"/>
-    <col min="14" max="14" width="7.625" style="1" customWidth="true"/>
-    <col min="15" max="15" width="5" style="1" customWidth="true"/>
-    <col min="16" max="16" width="12" style="1" customWidth="true"/>
-    <col min="17" max="17" width="8.875" style="1"/>
-    <col min="18" max="18" width="16.25" style="1" customWidth="true"/>
-    <col min="19" max="19" width="8.875" style="1"/>
-    <col min="20" max="20" width="25.375" style="7" customWidth="true"/>
-    <col min="21" max="21" width="21.625" style="1" customWidth="true"/>
-    <col min="22" max="22" width="30.375" style="7" customWidth="true"/>
-    <col min="23" max="16384" width="8.875" style="1"/>
+    <col min="10" max="10" width="4.1796875" style="1" customWidth="true"/>
+    <col min="13" max="13" width="25.06640625" style="7" customWidth="true"/>
+    <col min="14" max="14" width="4.1796875" style="1" customWidth="true"/>
+    <col min="15" max="15" width="10" style="1" customWidth="true"/>
+    <col min="16" max="16" width="7.6640625" style="1" customWidth="true"/>
+    <col min="17" max="17" width="5" style="1" customWidth="true"/>
+    <col min="18" max="18" width="12" style="1" customWidth="true"/>
+    <col min="19" max="19" width="8.88671875" style="1"/>
+    <col min="20" max="20" width="16.21875" style="1" customWidth="true"/>
+    <col min="21" max="21" width="8.88671875" style="1"/>
+    <col min="22" max="22" width="25.33203125" style="7" customWidth="true"/>
+    <col min="23" max="23" width="21.6640625" style="1" customWidth="true"/>
+    <col min="24" max="24" width="30.33203125" style="7" customWidth="true"/>
+    <col min="25" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="5.2890625" style="1" customWidth="true"/>
+    <col min="12" max="12" width="4.734375" style="1" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="27" customHeight="true" x14ac:dyDescent="0.2">
+    <row r="1" s="3" customFormat="true" ht="27" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>1248</v>
+        <v>4059</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1251</v>
+        <v>4062</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>1254</v>
+        <v>4065</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>1257</v>
+        <v>4068</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1260</v>
+        <v>4071</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>1263</v>
+        <v>4074</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1266</v>
+        <v>4077</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1268</v>
+        <v>4079</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1270</v>
+        <v>4081</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1271</v>
+        <v>4082</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>1272</v>
+      <c r="K1" s="3" t="s">
+        <v>4084</v>
       </c>
-      <c r="T1" s="5"/>
+      <c r="L1" s="3" t="s">
+        <v>4086</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>4088</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>4090</v>
+      </c>
       <c r="V1" s="5"/>
+      <c r="X1" s="5"/>
     </row>
-    <row r="2" ht="55.5" customHeight="true" x14ac:dyDescent="0.2">
+    <row r="2" ht="55.5" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>1249</v>
+        <v>4060</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1252</v>
+        <v>4063</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>1255</v>
+        <v>4066</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>1258</v>
+        <v>4069</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1261</v>
+        <v>4072</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1264</v>
+        <v>4075</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1267</v>
+        <v>4078</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1269</v>
+        <v>4080</v>
       </c>
       <c r="I2" s="1">
         <v>0.10000000000000001</v>
       </c>
-      <c r="J2" s="1">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>4083</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>1273</v>
+      <c r="K2" s="1" t="s">
+        <v>4085</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="T2" s="9"/>
+      <c r="L2" s="1" t="s">
+        <v>4087</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>4089</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>4091</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="V2" s="9"/>
     </row>
-    <row r="3" ht="55.5" customHeight="true" x14ac:dyDescent="0.2">
+    <row r="3" ht="55.5" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>1250</v>
+        <v>4061</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1253</v>
+        <v>4064</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1256</v>
+        <v>4067</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1259</v>
+        <v>4070</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1262</v>
+        <v>4073</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>1265</v>
+        <v>4076</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1267</v>
+        <v>4078</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1269</v>
+        <v>4080</v>
       </c>
       <c r="I3" s="1">
         <v>0.10000000000000001</v>
       </c>
-      <c r="J3" s="1">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>4083</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>1273</v>
+      <c r="K3" s="1" t="s">
+        <v>4085</v>
       </c>
-      <c r="Q3" s="8"/>
-      <c r="T3" s="9"/>
+      <c r="L3" s="1" t="s">
+        <v>4087</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>4089</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>4091</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="V3" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIConfig.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="true"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE555D1-5068-4A05-A255-4260145B0CC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE02DD87-D2A6-4EBE-8706-91F24ADE3242}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="1097">
   <si>
     <t>1-1,1-2,1-3,1-4</t>
   </si>
@@ -55,6 +55,9 @@
     <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300_StdN-15</t>
   </si>
   <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
+  </si>
+  <si>
     <t>soundPath</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_800_Dur_300_STDN_15</t>
   </si>
   <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
+  </si>
+  <si>
     <t>orderIndex</t>
   </si>
   <si>
@@ -91,6 +97,9 @@
     <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800</t>
   </si>
   <si>
+    <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
+  </si>
+  <si>
     <t>trialTypes</t>
   </si>
   <si>
@@ -103,6 +112,9 @@
     <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800</t>
   </si>
   <si>
+    <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
+  </si>
+  <si>
     <t>Std_Dev_Onset</t>
   </si>
   <si>
@@ -115,6 +127,9 @@
     <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226,10029,10832,11634,12437,13240,14042;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212,10013,10814,11615,12416,13217,14018;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015</t>
   </si>
   <si>
+    <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
+  </si>
+  <si>
     <t>Window</t>
   </si>
   <si>
@@ -124,6 +139,9 @@
     <t>-15000,1000</t>
   </si>
   <si>
+    <t>-11000,1000</t>
+  </si>
+  <si>
     <t>DevPlotWin</t>
   </si>
   <si>
@@ -163,24 +181,176 @@
     <t>600</t>
   </si>
   <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10000,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300_StdN-15</t>
+  </si>
+  <si>
     <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_800_Dur_300_STDN_15</t>
   </si>
   <si>
     <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800</t>
   </si>
   <si>
     <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226,10029,10832,11634,12437,13240,14042;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212,10013,10814,11615,12416,13217,14018;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015</t>
+  </si>
+  <si>
+    <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
+  </si>
+  <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>-15000,1000</t>
   </si>
   <si>
     <t>-11000,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10000,1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
   </si>
   <si>
     <t>#FF0000, #FFA500, #0000FF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
   </si>
   <si>
     <t>paradigm</t>
@@ -198,6 +368,9 @@
     <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
   </si>
   <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
     <t>soundPath</t>
   </si>
   <si>
@@ -213,6 +386,9 @@
     <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
   </si>
   <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
     <t>orderIndex</t>
   </si>
   <si>
@@ -240,6 +416,9 @@
     <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
   </si>
   <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
     <t>trialTypes</t>
   </si>
   <si>
@@ -255,6 +434,9 @@
     <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
   </si>
   <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
     <t>Std_Dev_Onset</t>
   </si>
   <si>
@@ -270,6 +452,9 @@
     <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
   </si>
   <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+  </si>
+  <si>
     <t>Window</t>
   </si>
   <si>
@@ -282,6 +467,9 @@
     <t>-11000,1000</t>
   </si>
   <si>
+    <t>-10000,1000</t>
+  </si>
+  <si>
     <t>DevPlotWin</t>
   </si>
   <si>
@@ -336,6 +524,9 @@
     <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
   </si>
   <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
     <t>soundPath</t>
   </si>
   <si>
@@ -351,6 +542,9 @@
     <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
   </si>
   <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
     <t>orderIndex</t>
   </si>
   <si>
@@ -378,6 +572,9 @@
     <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
   </si>
   <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
     <t>trialTypes</t>
   </si>
   <si>
@@ -393,6 +590,9 @@
     <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
   </si>
   <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
     <t>Std_Dev_Onset</t>
   </si>
   <si>
@@ -408,6 +608,9 @@
     <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
   </si>
   <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+  </si>
+  <si>
     <t>Window</t>
   </si>
   <si>
@@ -420,6 +623,9 @@
     <t>-11000,1000</t>
   </si>
   <si>
+    <t>-10000,1000</t>
+  </si>
+  <si>
     <t>DevPlotWin</t>
   </si>
   <si>
@@ -474,6 +680,9 @@
     <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
   </si>
   <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
     <t>soundPath</t>
   </si>
   <si>
@@ -489,6 +698,9 @@
     <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
   </si>
   <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
     <t>orderIndex</t>
   </si>
   <si>
@@ -516,6 +728,9 @@
     <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
   </si>
   <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
     <t>trialTypes</t>
   </si>
   <si>
@@ -531,6 +746,9 @@
     <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
   </si>
   <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
     <t>Std_Dev_Onset</t>
   </si>
   <si>
@@ -546,6 +764,9 @@
     <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
   </si>
   <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+  </si>
+  <si>
     <t>Window</t>
   </si>
   <si>
@@ -558,6 +779,9 @@
     <t>-11000,1000</t>
   </si>
   <si>
+    <t>-10000,1000</t>
+  </si>
+  <si>
     <t>DevPlotWin</t>
   </si>
   <si>
@@ -612,6 +836,9 @@
     <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
   </si>
   <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
     <t>soundPath</t>
   </si>
   <si>
@@ -627,6 +854,9 @@
     <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
   </si>
   <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
     <t>orderIndex</t>
   </si>
   <si>
@@ -654,6 +884,9 @@
     <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
   </si>
   <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
     <t>trialTypes</t>
   </si>
   <si>
@@ -669,6 +902,9 @@
     <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
   </si>
   <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
     <t>Std_Dev_Onset</t>
   </si>
   <si>
@@ -684,6 +920,9 @@
     <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
   </si>
   <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+  </si>
+  <si>
     <t>Window</t>
   </si>
   <si>
@@ -696,6 +935,9 @@
     <t>-11000,1000</t>
   </si>
   <si>
+    <t>-10000,1000</t>
+  </si>
+  <si>
     <t>DevPlotWin</t>
   </si>
   <si>
@@ -750,6 +992,9 @@
     <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
   </si>
   <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
     <t>soundPath</t>
   </si>
   <si>
@@ -765,6 +1010,9 @@
     <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
   </si>
   <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
     <t>orderIndex</t>
   </si>
   <si>
@@ -792,6 +1040,9 @@
     <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
   </si>
   <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
     <t>trialTypes</t>
   </si>
   <si>
@@ -807,6 +1058,9 @@
     <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
   </si>
   <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
     <t>Std_Dev_Onset</t>
   </si>
   <si>
@@ -822,6 +1076,9 @@
     <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
   </si>
   <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+  </si>
+  <si>
     <t>Window</t>
   </si>
   <si>
@@ -834,6 +1091,9 @@
     <t>-11000,1000</t>
   </si>
   <si>
+    <t>-10000,1000</t>
+  </si>
+  <si>
     <t>DevPlotWin</t>
   </si>
   <si>
@@ -888,6 +1148,9 @@
     <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
   </si>
   <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
     <t>soundPath</t>
   </si>
   <si>
@@ -903,6 +1166,9 @@
     <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
   </si>
   <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
     <t>orderIndex</t>
   </si>
   <si>
@@ -930,6 +1196,9 @@
     <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
   </si>
   <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
     <t>trialTypes</t>
   </si>
   <si>
@@ -945,6 +1214,9 @@
     <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
   </si>
   <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
     <t>Std_Dev_Onset</t>
   </si>
   <si>
@@ -960,6 +1232,9 @@
     <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
   </si>
   <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+  </si>
+  <si>
     <t>Window</t>
   </si>
   <si>
@@ -972,6 +1247,9 @@
     <t>-11000,1000</t>
   </si>
   <si>
+    <t>-10000,1000</t>
+  </si>
+  <si>
     <t>DevPlotWin</t>
   </si>
   <si>
@@ -1026,6 +1304,9 @@
     <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
   </si>
   <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
     <t>soundPath</t>
   </si>
   <si>
@@ -1041,6 +1322,9 @@
     <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
   </si>
   <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
     <t>orderIndex</t>
   </si>
   <si>
@@ -1068,6 +1352,9 @@
     <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
   </si>
   <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
     <t>trialTypes</t>
   </si>
   <si>
@@ -1083,6 +1370,9 @@
     <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
   </si>
   <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
     <t>Std_Dev_Onset</t>
   </si>
   <si>
@@ -1098,6 +1388,9 @@
     <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
   </si>
   <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+  </si>
+  <si>
     <t>Window</t>
   </si>
   <si>
@@ -1110,6 +1403,9 @@
     <t>-11000,1000</t>
   </si>
   <si>
+    <t>-10000,1000</t>
+  </si>
+  <si>
     <t>DevPlotWin</t>
   </si>
   <si>
@@ -1164,6 +1460,9 @@
     <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
   </si>
   <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
     <t>soundPath</t>
   </si>
   <si>
@@ -1179,6 +1478,9 @@
     <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
   </si>
   <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
     <t>orderIndex</t>
   </si>
   <si>
@@ -1206,6 +1508,9 @@
     <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
   </si>
   <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
     <t>trialTypes</t>
   </si>
   <si>
@@ -1221,6 +1526,9 @@
     <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
   </si>
   <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
     <t>Std_Dev_Onset</t>
   </si>
   <si>
@@ -1236,6 +1544,9 @@
     <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
   </si>
   <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+  </si>
+  <si>
     <t>Window</t>
   </si>
   <si>
@@ -1246,6 +1557,1725 @@
   </si>
   <si>
     <t>-11000,1000</t>
+  </si>
+  <si>
+    <t>-10000,1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_800_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226,10029,10832,11634,12437,13240,14042;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212,10013,10814,11615,12416,13217,14018;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015</t>
+  </si>
+  <si>
+    <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
+  </si>
+  <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>-15000,1000</t>
+  </si>
+  <si>
+    <t>-11000,1000</t>
+  </si>
+  <si>
+    <t>-10000,1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_800_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226,10029,10832,11634,12437,13240,14042;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212,10013,10814,11615,12416,13217,14018;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015</t>
+  </si>
+  <si>
+    <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
+  </si>
+  <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>-15000,1000</t>
+  </si>
+  <si>
+    <t>-11000,1000</t>
+  </si>
+  <si>
+    <t>-10000,1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_800_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226,10029,10832,11634,12437,13240,14042;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212,10013,10814,11615,12416,13217,14018;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015</t>
+  </si>
+  <si>
+    <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
+  </si>
+  <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>-15000,1000</t>
+  </si>
+  <si>
+    <t>-11000,1000</t>
+  </si>
+  <si>
+    <t>-10000,1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_800_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226,10029,10832,11634,12437,13240,14042;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212,10013,10814,11615,12416,13217,14018;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015</t>
+  </si>
+  <si>
+    <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
+  </si>
+  <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>-15000,1000</t>
+  </si>
+  <si>
+    <t>-11000,1000</t>
+  </si>
+  <si>
+    <t>-10000,1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_800_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226,10029,10832,11634,12437,13240,14042;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212,10013,10814,11615,12416,13217,14018;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015</t>
+  </si>
+  <si>
+    <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
+  </si>
+  <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>-15000,1000</t>
+  </si>
+  <si>
+    <t>-11000,1000</t>
+  </si>
+  <si>
+    <t>-10000,1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_800_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226,10029,10832,11634,12437,13240,14042;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212,10013,10814,11615,12416,13217,14018;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015</t>
+  </si>
+  <si>
+    <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
+  </si>
+  <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>-15000,1000</t>
+  </si>
+  <si>
+    <t>-11000,1000</t>
+  </si>
+  <si>
+    <t>-10000,1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_800_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226,10029,10832,11634,12437,13240,14042;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212,10013,10814,11615,12416,13217,14018;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015</t>
+  </si>
+  <si>
+    <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
+  </si>
+  <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>-15000,1000</t>
+  </si>
+  <si>
+    <t>-11000,1000</t>
+  </si>
+  <si>
+    <t>-10000,1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_800_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226,10029,10832,11634,12437,13240,14042;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212,10013,10814,11615,12416,13217,14018;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015</t>
+  </si>
+  <si>
+    <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
+  </si>
+  <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>-15000,1000</t>
+  </si>
+  <si>
+    <t>-11000,1000</t>
+  </si>
+  <si>
+    <t>-10000,1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_800_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226,10029,10832,11634,12437,13240,14042;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212,10013,10814,11615,12416,13217,14018;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015</t>
+  </si>
+  <si>
+    <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
+  </si>
+  <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>-15000,1000</t>
+  </si>
+  <si>
+    <t>-11000,1000</t>
+  </si>
+  <si>
+    <t>-10000,1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_800_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226,10029,10832,11634,12437,13240,14042;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212,10013,10814,11615,12416,13217,14018;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015</t>
+  </si>
+  <si>
+    <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
+  </si>
+  <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>-15000,1000</t>
+  </si>
+  <si>
+    <t>-11000,1000</t>
+  </si>
+  <si>
+    <t>-10000,1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
+  </si>
+  <si>
+    <t>-100,600</t>
+  </si>
+  <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fhp2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>flp2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_800_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226,10029,10832,11634,12437,13240,14042;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212,10013,10814,11615,12416,13217,14018;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015</t>
+  </si>
+  <si>
+    <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
+  </si>
+  <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>-15000,1000</t>
+  </si>
+  <si>
+    <t>-11000,1000</t>
+  </si>
+  <si>
+    <t>-10000,1000</t>
   </si>
   <si>
     <t>DevPlotWin</t>
@@ -1331,7 +3361,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1374,11 +3404,23 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -1419,6 +3461,18 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1699,10 +3753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="true" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1736,228 +3790,272 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="27" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>374</v>
+        <v>1045</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>379</v>
+        <v>1051</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>384</v>
+        <v>1057</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>388</v>
+        <v>1061</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>393</v>
+        <v>1067</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>398</v>
+        <v>1073</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>403</v>
+        <v>1079</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>407</v>
+        <v>1084</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>409</v>
+        <v>1086</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>410</v>
+        <v>1087</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>412</v>
+        <v>1089</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>414</v>
+        <v>1091</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>416</v>
+        <v>1093</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>418</v>
+        <v>1095</v>
       </c>
       <c r="V1" s="5"/>
       <c r="X1" s="5"/>
     </row>
     <row r="2" ht="55.5" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>375</v>
+        <v>1046</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>380</v>
+        <v>1052</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>385</v>
+        <v>1058</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>389</v>
+        <v>1062</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>394</v>
+        <v>1068</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>399</v>
+        <v>1074</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>404</v>
+        <v>1080</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>408</v>
+        <v>1085</v>
       </c>
       <c r="I2" s="1">
         <v>0.10000000000000001</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>411</v>
+        <v>1088</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>413</v>
+        <v>1090</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>415</v>
+        <v>1092</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>417</v>
+        <v>1094</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>419</v>
+        <v>1096</v>
       </c>
       <c r="S2" s="8"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" ht="55.5" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>376</v>
+        <v>1047</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>381</v>
+        <v>1053</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>386</v>
+        <v>1059</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>390</v>
+        <v>1063</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>395</v>
+        <v>1069</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>400</v>
+        <v>1075</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>404</v>
+        <v>1080</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>408</v>
+        <v>1085</v>
       </c>
       <c r="I3" s="1">
         <v>0.10000000000000001</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>411</v>
+        <v>1088</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>413</v>
+        <v>1090</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>415</v>
+        <v>1092</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>417</v>
+        <v>1094</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>419</v>
+        <v>1096</v>
       </c>
       <c r="S3" s="8"/>
       <c r="V3" s="9"/>
     </row>
-    <row r="4" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>377</v>
+        <v>1048</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>382</v>
+        <v>1054</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>387</v>
+        <v>1060</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>391</v>
+        <v>1064</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>396</v>
+        <v>1070</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>401</v>
+        <v>1076</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>405</v>
+        <v>1081</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>408</v>
+        <v>1085</v>
       </c>
       <c r="I4" s="1">
         <v>0.10000000000000001</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>411</v>
+        <v>1088</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>413</v>
+        <v>1090</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>415</v>
+        <v>1092</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>417</v>
+        <v>1094</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>419</v>
+        <v>1096</v>
       </c>
     </row>
-    <row r="5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>378</v>
+        <v>1049</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>383</v>
+        <v>1055</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>387</v>
+        <v>1060</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>392</v>
+        <v>1065</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>397</v>
+        <v>1071</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>402</v>
+        <v>1077</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>406</v>
+        <v>1082</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>408</v>
+        <v>1085</v>
       </c>
       <c r="I5" s="1">
         <v>0.10000000000000001</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>411</v>
+        <v>1088</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>413</v>
+        <v>1090</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>415</v>
+        <v>1092</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>417</v>
+        <v>1094</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>419</v>
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1096</v>
       </c>
     </row>
   </sheetData>

--- a/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIConfig.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="true"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE02DD87-D2A6-4EBE-8706-91F24ADE3242}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C96490-7810-48A8-937C-FE5D247CF043}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392"/>
   </bookViews>
@@ -20,29 +20,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="1097">
-  <si>
-    <t>1-1,1-2,1-3,1-4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1144">
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-06_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-300_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-800_StdDur-150_BG_Start-2000;E:\ratNeuroPixel\monkeySounds\2022-12-08_MMN_BackGround_2000\5ms_ICIs_4o5_4_ISI-650_StdDur-150_BG_Start-2000</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_800_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
+    <t>orderIndex</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4,2-1,2-2,2-3,2-4,3-1,3-2,3-3,3-4</t>
+  </si>
+  <si>
+    <t>1-1,1-2,1-3,1-4</t>
+  </si>
+  <si>
+    <t>S1_S2</t>
+  </si>
+  <si>
+    <t>Reg4o5,Reg4</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800;Reg4o5-Dur150-ISI800,Reg4-Dur150-ISI800;Reg4o5-Dur150-ISI650,Reg4Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800,Reg4-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>Reg4o5_Reg4,Reg4_Reg4o5,ManyStd_Reg4,ManyStd_Reg4o5</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800,Reg4o5-Dur150-ISI800_Reg4-Dur150-ISI800,Reg4-Dur150-ISI800_Reg4o5-Dur150-ISI800,ManyStd_Reg4-Dur150-ISI800,ManyStd_Reg4o5-Dur150-ISI800,Reg4o5-Dur150-ISI650_Reg4Dur150-ISI650,Reg4Dur150-ISI650_Reg4o5-Dur150-ISI650,ManyStd_Reg4Dur150-ISI650,ManyStd_Reg4o5-Dur150-ISI650</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI800_Reg4-Dur300-ISI800,Reg4-Dur300-ISI800_Reg4o5-Dur300-ISI800,ManyStd_Reg4-Dur300-ISI800,ManyStd_Reg4o5-Dur300-ISI800</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
+  </si>
+  <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
+    <t>Std_Dev_Onset</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2806,3605,4405,5206,6005,6809,7610,8411,9213;2003,2803,3602,4402,5202,6001,6801,7600,8400,9200;2003,2806,3609,4412,5215,6018,6822,7625,8428,9231;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2803,3604,4404,5205,6008,6811,7614,8414,9217;2003,2652,3302,3951,4601,5250,5899,6549,7198,7848;2003,2656,3309,3962,4614,5267,5920,6573,7226,7879;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865;2003,2653,3305,3956,4609,5258,5911,6560,7213,7865</t>
+  </si>
+  <si>
+    <t>2003,2806,3608,4411,5213,6016,6819,7621,8424,9226,10029,10832,11634,12437,13240,14042;2003,2804,3605,4406,5207,6008,6809,7610,8411,9212,10013,10814,11615,12416,13217,14018;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015;2003,2806,3606,4406,5209,6010,6811,7610,8411,9210,10010,10810,11612,12413,13215,14015</t>
+  </si>
+  <si>
+    <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>-8000, 1000</t>
+  </si>
+  <si>
+    <t>-15000,1000</t>
+  </si>
+  <si>
+    <t>-11000,1000</t>
+  </si>
+  <si>
+    <t>-10000,1000</t>
+  </si>
+  <si>
+    <t>DevPlotWin</t>
   </si>
   <si>
     <t>-100,600</t>
   </si>
   <si>
+    <t>fhp</t>
+  </si>
+  <si>
+    <t>flp</t>
+  </si>
+  <si>
     <t>300</t>
   </si>
   <si>
+    <t>fhp2</t>
+  </si>
+  <si>
     <t>0.1</t>
   </si>
   <si>
+    <t>flp2</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
+    <t>colors</t>
+  </si>
+  <si>
     <t>#FF0000, #FFA500, #0000FF</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
     <t>600</t>
   </si>
   <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -58,6 +194,9 @@
     <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
   </si>
   <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
     <t>soundPath</t>
   </si>
   <si>
@@ -73,6 +212,9 @@
     <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_500_Dur_300_STDN_15</t>
   </si>
   <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
+  </si>
+  <si>
     <t>orderIndex</t>
   </si>
   <si>
@@ -100,6 +242,9 @@
     <t>Reg4o5-Dur300-ISI500,Reg4-Dur300-ISI500</t>
   </si>
   <si>
+    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
+  </si>
+  <si>
     <t>trialTypes</t>
   </si>
   <si>
@@ -115,6 +260,9 @@
     <t>Reg4o5-Dur300-ISI500_Reg4-Dur300-ISI500,Reg4-Dur300-ISI500_Reg4o5-Dur300-ISI500,ManyStd_Reg4-Dur300-ISI500,ManyStd_Reg4o5-Dur300-ISI500</t>
   </si>
   <si>
+    <t>Reg4o5-Dur200-ISI400_Reg4-Dur200-ISI400,Reg4-Dur200-ISI400_Reg4o5-Dur200-ISI400,ManyStd_Reg4-Dur200-ISI400,ManyStd_Reg4o5-Dur200-ISI400</t>
+  </si>
+  <si>
     <t>Std_Dev_Onset</t>
   </si>
   <si>
@@ -130,6 +278,9 @@
     <t>2003,2505,3007,3509,4012,4514,5016,5518,6020,6522,7025,7527,8029,8531,9033,9536;2003,2504,3004,3505,4005,4506,5006,5507,6008,6508,7009,7509,8010,8511,9011,9512;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508;2003,2503,3004,3503,4002,4502,5002,5504,6002,6502,7004,7504,8007,8507,9006,9508</t>
   </si>
   <si>
+    <t>2003,2401,2800,3199,3597,3996,4394,4793,5191,5590,5988,6387,6785,7184,7583,7981;2003,2403,2804,3204,3605,4005,4406,4806,5207,5607,6008,6408,6809,7209,7610,8010;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012;2003,2402,2803,3204,3607,4008,4409,4810,5212,5611,6013,6412,6812,7213,7613,8012</t>
+  </si>
+  <si>
     <t>Window</t>
   </si>
   <si>
@@ -142,6 +293,9 @@
     <t>-11000,1000</t>
   </si>
   <si>
+    <t>-10000,1000</t>
+  </si>
+  <si>
     <t>DevPlotWin</t>
   </si>
   <si>
@@ -179,22 +333,6 @@
   </si>
   <si>
     <t>600</t>
-  </si>
-  <si>
-    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reg4o5-Dur200-ISI400,Reg4-Dur200-ISI400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-10000,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-02-03_MSTI_BG-5_S1-4_S2-4.5_ISI_400_Dur_200_STDN_15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>paradigm</t>
@@ -3361,7 +3499,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -3416,11 +3554,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -3473,6 +3612,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3755,8 +3895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="true" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="true" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3790,272 +3930,272 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="27" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>1045</v>
+        <v>1092</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1051</v>
+        <v>1098</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>1057</v>
+        <v>1104</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>1061</v>
+        <v>1108</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1067</v>
+        <v>1114</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>1073</v>
+        <v>1120</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1079</v>
+        <v>1126</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1084</v>
+        <v>1131</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1086</v>
+        <v>1133</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1087</v>
+        <v>1134</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>1089</v>
+        <v>1136</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>1091</v>
+        <v>1138</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>1093</v>
+        <v>1140</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>1095</v>
+        <v>1142</v>
       </c>
       <c r="V1" s="5"/>
       <c r="X1" s="5"/>
     </row>
     <row r="2" ht="55.5" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>1046</v>
+        <v>1093</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1052</v>
+        <v>1099</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>1058</v>
+        <v>1105</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>1062</v>
+        <v>1109</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1068</v>
+        <v>1115</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1074</v>
+        <v>1121</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1080</v>
+        <v>1127</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1085</v>
+        <v>1132</v>
       </c>
       <c r="I2" s="1">
         <v>0.10000000000000001</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1088</v>
+        <v>1135</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1090</v>
+        <v>1137</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>1092</v>
+        <v>1139</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>1094</v>
+        <v>1141</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1096</v>
+        <v>1143</v>
       </c>
       <c r="S2" s="8"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" ht="55.5" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>1047</v>
+        <v>1094</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1053</v>
+        <v>1100</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1059</v>
+        <v>1106</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1063</v>
+        <v>1110</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1069</v>
+        <v>1116</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>1075</v>
+        <v>1122</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1080</v>
+        <v>1127</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1085</v>
+        <v>1132</v>
       </c>
       <c r="I3" s="1">
         <v>0.10000000000000001</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1088</v>
+        <v>1135</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1090</v>
+        <v>1137</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>1092</v>
+        <v>1139</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>1094</v>
+        <v>1141</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>1096</v>
+        <v>1143</v>
       </c>
       <c r="S3" s="8"/>
       <c r="V3" s="9"/>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1048</v>
+        <v>1095</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1054</v>
+        <v>1101</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>1060</v>
+        <v>1107</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>1064</v>
+        <v>1111</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1070</v>
+        <v>1117</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>1076</v>
+        <v>1123</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1081</v>
+        <v>1128</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1085</v>
+        <v>1132</v>
       </c>
       <c r="I4" s="1">
         <v>0.10000000000000001</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>1088</v>
+        <v>1135</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1090</v>
+        <v>1137</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>1092</v>
+        <v>1139</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>1094</v>
+        <v>1141</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>1096</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1049</v>
+        <v>1096</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1055</v>
+        <v>1102</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>1060</v>
+        <v>1107</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>1065</v>
+        <v>1112</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1071</v>
+        <v>1118</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>1077</v>
+        <v>1124</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1082</v>
+        <v>1129</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1085</v>
+        <v>1132</v>
       </c>
       <c r="I5" s="1">
         <v>0.10000000000000001</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1088</v>
+        <v>1135</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>1090</v>
+        <v>1137</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>1092</v>
+        <v>1139</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>1094</v>
+        <v>1141</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>1096</v>
+        <v>1143</v>
       </c>
     </row>
-    <row r="6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1050</v>
+        <v>1097</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1056</v>
+        <v>1103</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>1060</v>
+        <v>1107</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>1066</v>
+        <v>1113</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1072</v>
+        <v>1119</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>1078</v>
+        <v>1125</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1083</v>
+        <v>1130</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>1085</v>
+        <v>1132</v>
       </c>
       <c r="I6" s="1">
         <v>0.10000000000000001</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1088</v>
+        <v>1135</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>1090</v>
+        <v>1137</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>1092</v>
+        <v>1139</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>1094</v>
+        <v>1141</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>1096</v>
+        <v>1143</v>
       </c>
     </row>
   </sheetData>
